--- a/Data/特征说明.xlsx
+++ b/Data/特征说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penxu\Desktop\分类\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94FE31-F0E5-4A6A-A7E9-DE8A46B39CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCBB6AC-306A-4CEA-B5E1-75FEAE330331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="9390" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="177">
   <si>
     <t>L</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,6 +668,69 @@
   <si>
     <t>第5正向重复起始位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR6SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR6L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR6N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR6G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR6S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR7SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR7L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR7N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR7G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR7S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR8SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR8L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR8N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR8G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR8S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:CG81"/>
+  <dimension ref="B1:CV96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1446,460 +1509,628 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>98</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C79" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>99</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C80" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="81" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>100</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C81" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="82" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>145</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C82" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="83" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>101</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C83" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="84" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>102</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C84" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
+        <v>5</v>
+      </c>
+      <c r="K84" t="s">
+        <v>6</v>
+      </c>
+      <c r="L84" t="s">
+        <v>7</v>
+      </c>
+      <c r="M84" t="s">
+        <v>8</v>
+      </c>
+      <c r="N84" t="s">
+        <v>25</v>
+      </c>
+      <c r="O84" t="s">
+        <v>26</v>
+      </c>
+      <c r="P84" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>28</v>
+      </c>
+      <c r="R84" t="s">
+        <v>33</v>
+      </c>
+      <c r="S84" t="s">
+        <v>34</v>
+      </c>
+      <c r="T84" t="s">
+        <v>35</v>
+      </c>
+      <c r="U84" t="s">
+        <v>36</v>
+      </c>
+      <c r="V84" t="s">
+        <v>38</v>
+      </c>
+      <c r="W84" t="s">
+        <v>37</v>
+      </c>
+      <c r="X84" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ84" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA84" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB84" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC84" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD84" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE84" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF84" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG84" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH84" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI84" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ84" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK84" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL84" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM84" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN84" t="s">
+        <v>168</v>
+      </c>
+      <c r="BO84" t="s">
+        <v>169</v>
+      </c>
+      <c r="BP84" t="s">
+        <v>170</v>
+      </c>
+      <c r="BQ84" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR84" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS84" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT84" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU84" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV84" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW84" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX84" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY84" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ84" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA84" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB84" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC84" t="s">
+        <v>143</v>
+      </c>
+      <c r="CD84" t="s">
+        <v>97</v>
+      </c>
+      <c r="CE84" t="s">
+        <v>98</v>
+      </c>
+      <c r="CF84" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG84" t="s">
+        <v>100</v>
+      </c>
+      <c r="CH84" t="s">
+        <v>145</v>
+      </c>
+      <c r="CI84" t="s">
+        <v>101</v>
+      </c>
+      <c r="CJ84" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK84" t="s">
         <v>103</v>
       </c>
-      <c r="C70" t="s">
+      <c r="CL84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM84" t="s">
+        <v>147</v>
+      </c>
+      <c r="CN84" t="s">
+        <v>105</v>
+      </c>
+      <c r="CO84" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP84" t="s">
+        <v>107</v>
+      </c>
+      <c r="CQ84" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR84" t="s">
+        <v>149</v>
+      </c>
+      <c r="CS84" t="s">
+        <v>109</v>
+      </c>
+      <c r="CT84" t="s">
+        <v>110</v>
+      </c>
+      <c r="CU84" t="s">
+        <v>111</v>
+      </c>
+      <c r="CV84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="86" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>104</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C86" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="87" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>147</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C87" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+    <row r="88" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>105</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C88" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="89" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>106</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C89" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="90" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>107</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C90" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="91" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>108</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C91" t="s">
         <v>130</v>
       </c>
-      <c r="E76" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" t="s">
-        <v>6</v>
-      </c>
-      <c r="L76" t="s">
-        <v>7</v>
-      </c>
-      <c r="M76" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" t="s">
-        <v>25</v>
-      </c>
-      <c r="O76" t="s">
-        <v>26</v>
-      </c>
-      <c r="P76" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>28</v>
-      </c>
-      <c r="R76" t="s">
-        <v>33</v>
-      </c>
-      <c r="S76" t="s">
-        <v>34</v>
-      </c>
-      <c r="T76" t="s">
-        <v>35</v>
-      </c>
-      <c r="U76" t="s">
-        <v>36</v>
-      </c>
-      <c r="V76" t="s">
-        <v>38</v>
-      </c>
-      <c r="W76" t="s">
-        <v>37</v>
-      </c>
-      <c r="X76" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL76" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM76" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN76" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP76" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ76" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR76" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT76" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU76" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW76" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX76" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY76" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ76" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA76" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB76" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC76" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD76" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE76" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF76" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG76" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH76" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI76" t="s">
-        <v>141</v>
-      </c>
-      <c r="BJ76" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK76" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL76" t="s">
-        <v>95</v>
-      </c>
-      <c r="BM76" t="s">
-        <v>96</v>
-      </c>
-      <c r="BN76" t="s">
-        <v>143</v>
-      </c>
-      <c r="BO76" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP76" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ76" t="s">
-        <v>99</v>
-      </c>
-      <c r="BR76" t="s">
-        <v>100</v>
-      </c>
-      <c r="BS76" t="s">
-        <v>145</v>
-      </c>
-      <c r="BT76" t="s">
-        <v>101</v>
-      </c>
-      <c r="BU76" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV76" t="s">
-        <v>103</v>
-      </c>
-      <c r="BW76" t="s">
-        <v>104</v>
-      </c>
-      <c r="BX76" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY76" t="s">
-        <v>105</v>
-      </c>
-      <c r="BZ76" t="s">
-        <v>106</v>
-      </c>
-      <c r="CA76" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB76" t="s">
-        <v>108</v>
-      </c>
-      <c r="CC76" t="s">
+    </row>
+    <row r="92" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>149</v>
       </c>
-      <c r="CD76" t="s">
+      <c r="C92" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>109</v>
       </c>
-      <c r="CE76" t="s">
+      <c r="C93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>110</v>
       </c>
-      <c r="CF76" t="s">
+      <c r="C94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>111</v>
       </c>
-      <c r="CG76" t="s">
+      <c r="C95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="2:100" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="77" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>149</v>
-      </c>
-      <c r="C77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="2:85" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="C96" t="s">
         <v>134</v>
       </c>
     </row>
